--- a/data/CLEAN LISTS.xlsx
+++ b/data/CLEAN LISTS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="1754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1762">
   <si>
     <t>entity</t>
   </si>
@@ -2515,6 +2515,9 @@
     <t>location</t>
   </si>
   <si>
+    <t>weights</t>
+  </si>
+  <si>
     <t>dkk</t>
   </si>
   <si>
@@ -4001,6 +4004,27 @@
   </si>
   <si>
     <t>@josefinehj</t>
+  </si>
+  <si>
+    <t>@tobiasmoeller213</t>
+  </si>
+  <si>
+    <t>@mathildegoehler</t>
+  </si>
+  <si>
+    <t>@carowozniacki</t>
+  </si>
+  <si>
+    <t>@braithwaiteofficial</t>
+  </si>
+  <si>
+    <t>@chriseriksen8</t>
+  </si>
+  <si>
+    <t>@hamderkurt</t>
+  </si>
+  <si>
+    <t>@mia1023218</t>
   </si>
   <si>
     <t>KiMs Chips</t>
@@ -7171,7 +7195,7 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B2" s="2">
         <v>10.0</v>
@@ -7179,7 +7203,7 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B3" s="2">
         <v>5.0</v>
@@ -7187,7 +7211,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B4" s="2">
         <v>5.0</v>
@@ -7195,7 +7219,7 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -7203,7 +7227,7 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B6" s="2">
         <v>1.0</v>
@@ -7211,7 +7235,7 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B7" s="2">
         <v>1.0</v>
@@ -7219,7 +7243,7 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B8" s="2">
         <v>1.0</v>
@@ -7227,7 +7251,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B9" s="2">
         <v>1.0</v>
@@ -7235,7 +7259,7 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B10" s="2">
         <v>1.0</v>
@@ -7243,7 +7267,7 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -7251,7 +7275,7 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -7259,7 +7283,7 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B13" s="2">
         <v>1.0</v>
@@ -7267,7 +7291,7 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B14" s="2">
         <v>1.0</v>
@@ -7275,7 +7299,7 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B15" s="2">
         <v>10.0</v>
@@ -7283,7 +7307,7 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B16" s="2">
         <v>5.0</v>
@@ -7291,7 +7315,7 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B17" s="2">
         <v>3.0</v>
@@ -7299,7 +7323,7 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B18" s="2">
         <v>1.0</v>
@@ -7307,7 +7331,7 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B19" s="2">
         <v>1.0</v>
@@ -7315,7 +7339,7 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -7323,7 +7347,7 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B21" s="2">
         <v>1.0</v>
@@ -7331,7 +7355,7 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B22" s="2">
         <v>1.0</v>
@@ -7339,7 +7363,7 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B23" s="2">
         <v>1.0</v>
@@ -7347,7 +7371,7 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -7355,7 +7379,7 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -7363,7 +7387,7 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -7371,7 +7395,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
@@ -7379,7 +7403,7 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -7387,7 +7411,7 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
@@ -7395,7 +7419,7 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B30" s="2">
         <v>1.0</v>
@@ -7403,7 +7427,7 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B31" s="2">
         <v>1.0</v>
@@ -7411,7 +7435,7 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B32" s="2">
         <v>1.0</v>
@@ -7419,7 +7443,7 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B33" s="2">
         <v>1.0</v>
@@ -7427,7 +7451,7 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B34" s="2">
         <v>1.0</v>
@@ -7435,7 +7459,7 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B35" s="2">
         <v>1.0</v>
@@ -7443,7 +7467,7 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -7451,7 +7475,7 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B37" s="2">
         <v>1.0</v>
@@ -7459,7 +7483,7 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B38" s="2">
         <v>1.0</v>
@@ -7467,7 +7491,7 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B39" s="2">
         <v>1.0</v>
@@ -10427,7 +10451,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -10435,7 +10459,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
@@ -10443,7 +10467,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -10451,7 +10475,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -10459,7 +10483,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B6" s="2">
         <v>1.0</v>
@@ -10467,7 +10491,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B7" s="2">
         <v>1.0</v>
@@ -10475,7 +10499,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B8" s="2">
         <v>1.0</v>
@@ -10483,7 +10507,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B9" s="2">
         <v>1.0</v>
@@ -10491,18 +10515,18 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B10" s="2">
         <v>1.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -10510,7 +10534,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -10518,7 +10542,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B13" s="2">
         <v>1.0</v>
@@ -10526,7 +10550,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B14" s="2">
         <v>1.0</v>
@@ -10534,7 +10558,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B15" s="2">
         <v>1.0</v>
@@ -10542,7 +10566,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -10550,7 +10574,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B17" s="2">
         <v>1.0</v>
@@ -10558,18 +10582,18 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B18" s="2">
         <v>1.0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B19" s="2">
         <v>1.0</v>
@@ -10577,7 +10601,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -10585,7 +10609,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B21" s="2">
         <v>1.0</v>
@@ -10593,7 +10617,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B22" s="2">
         <v>1.0</v>
@@ -10601,7 +10625,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B23" s="2">
         <v>1.0</v>
@@ -10609,7 +10633,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -10617,7 +10641,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -10625,7 +10649,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -10633,7 +10657,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
@@ -10641,7 +10665,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -10649,7 +10673,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
@@ -10657,7 +10681,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B30" s="2">
         <v>1.0</v>
@@ -10665,7 +10689,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B31" s="2">
         <v>1.0</v>
@@ -10673,7 +10697,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B32" s="2">
         <v>1.0</v>
@@ -10681,7 +10705,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B33" s="2">
         <v>1.0</v>
@@ -10689,7 +10713,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B34" s="2">
         <v>1.0</v>
@@ -10697,18 +10721,18 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B35" s="2">
         <v>1.0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -10716,29 +10740,29 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B37" s="2">
         <v>1.0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B38" s="2">
         <v>1.0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B39" s="2">
         <v>1.0</v>
@@ -10746,7 +10770,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B40" s="2">
         <v>1.0</v>
@@ -10754,7 +10778,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B41" s="2">
         <v>1.0</v>
@@ -10762,7 +10786,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B42" s="2">
         <v>1.0</v>
@@ -10770,7 +10794,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B43" s="2">
         <v>1.0</v>
@@ -10778,7 +10802,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B44" s="2">
         <v>1.0</v>
@@ -10786,7 +10810,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B45" s="2">
         <v>1.0</v>
@@ -10794,18 +10818,18 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B46" s="2">
         <v>1.0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B47" s="2">
         <v>1.0</v>
@@ -10813,7 +10837,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B48" s="2">
         <v>1.0</v>
@@ -10821,7 +10845,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B49" s="2">
         <v>1.0</v>
@@ -10829,7 +10853,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B50" s="2">
         <v>1.0</v>
@@ -10837,7 +10861,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B51" s="2">
         <v>1.0</v>
@@ -10845,7 +10869,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B52" s="2">
         <v>1.0</v>
@@ -10853,7 +10877,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B53" s="2">
         <v>1.0</v>
@@ -10861,7 +10885,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B54" s="2">
         <v>1.0</v>
@@ -10869,7 +10893,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B55" s="2">
         <v>1.0</v>
@@ -10877,7 +10901,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B56" s="2">
         <v>1.0</v>
@@ -10885,7 +10909,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B57" s="2">
         <v>1.0</v>
@@ -10893,7 +10917,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B58" s="2">
         <v>1.0</v>
@@ -10901,7 +10925,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B59" s="2">
         <v>1.0</v>
@@ -10909,7 +10933,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B60" s="2">
         <v>1.0</v>
@@ -10917,7 +10941,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B61" s="2">
         <v>1.0</v>
@@ -10925,7 +10949,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B62" s="2">
         <v>1.0</v>
@@ -10933,7 +10957,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B63" s="2">
         <v>1.0</v>
@@ -10941,7 +10965,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B64" s="2">
         <v>1.0</v>
@@ -10949,18 +10973,18 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B65" s="2">
         <v>1.0</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B66" s="2">
         <v>1.0</v>
@@ -10968,7 +10992,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B67" s="2">
         <v>1.0</v>
@@ -10976,18 +11000,18 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B68" s="2">
         <v>1.0</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B69" s="2">
         <v>1.0</v>
@@ -10995,18 +11019,18 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B70" s="2">
         <v>1.0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B71" s="2">
         <v>1.0</v>
@@ -11014,7 +11038,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B72" s="2">
         <v>1.0</v>
@@ -11022,18 +11046,18 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B73" s="2">
         <v>1.0</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B74" s="2">
         <v>1.0</v>
@@ -11041,18 +11065,18 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B75" s="2">
         <v>1.0</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B76" s="2">
         <v>1.0</v>
@@ -11060,7 +11084,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B77" s="2">
         <v>1.0</v>
@@ -11068,18 +11092,18 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B78" s="2">
         <v>1.0</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B79" s="2">
         <v>1.0</v>
@@ -11087,7 +11111,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B80" s="2">
         <v>1.0</v>
@@ -11095,18 +11119,18 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B81" s="2">
         <v>1.0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B82" s="2">
         <v>1.0</v>
@@ -11114,7 +11138,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B83" s="2">
         <v>1.0</v>
@@ -11122,7 +11146,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B84" s="2">
         <v>1.0</v>
@@ -11130,7 +11154,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B85" s="2">
         <v>1.0</v>
@@ -11138,7 +11162,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B86" s="2">
         <v>1.0</v>
@@ -11146,18 +11170,18 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B87" s="2">
         <v>1.0</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B88" s="2">
         <v>1.0</v>
@@ -11165,7 +11189,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B89" s="2">
         <v>1.0</v>
@@ -11173,7 +11197,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B90" s="2">
         <v>1.0</v>
@@ -11181,7 +11205,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B91" s="2">
         <v>1.0</v>
@@ -11189,7 +11213,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B92" s="2">
         <v>1.0</v>
@@ -11197,7 +11221,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B93" s="2">
         <v>1.0</v>
@@ -11205,7 +11229,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B94" s="2">
         <v>1.0</v>
@@ -11213,7 +11237,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B95" s="2">
         <v>1.0</v>
@@ -11221,7 +11245,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B96" s="2">
         <v>1.0</v>
@@ -11229,7 +11253,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B97" s="2">
         <v>1.0</v>
@@ -11237,7 +11261,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B98" s="2">
         <v>1.0</v>
@@ -11245,7 +11269,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B99" s="2">
         <v>1.0</v>
@@ -11253,7 +11277,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B100" s="2">
         <v>1.0</v>
@@ -11261,7 +11285,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B101" s="2">
         <v>1.0</v>
@@ -11269,18 +11293,18 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B102" s="2">
         <v>1.0</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B103" s="2">
         <v>1.0</v>
@@ -11288,7 +11312,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B104" s="2">
         <v>1.0</v>
@@ -11296,7 +11320,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B105" s="2">
         <v>1.0</v>
@@ -11304,7 +11328,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B106" s="2">
         <v>1.0</v>
@@ -11312,7 +11336,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B107" s="2">
         <v>1.0</v>
@@ -11320,7 +11344,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B108" s="2">
         <v>1.0</v>
@@ -11328,7 +11352,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B109" s="2">
         <v>1.0</v>
@@ -11336,7 +11360,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B110" s="2">
         <v>1.0</v>
@@ -11344,7 +11368,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B111" s="2">
         <v>1.0</v>
@@ -11352,7 +11376,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B112" s="2">
         <v>1.0</v>
@@ -11360,7 +11384,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B113" s="2">
         <v>1.0</v>
@@ -11368,7 +11392,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B114" s="2">
         <v>1.0</v>
@@ -11376,7 +11400,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B115" s="2">
         <v>1.0</v>
@@ -11384,7 +11408,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B116" s="2">
         <v>1.0</v>
@@ -11392,7 +11416,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B117" s="2">
         <v>1.0</v>
@@ -11400,7 +11424,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B118" s="2">
         <v>1.0</v>
@@ -11408,7 +11432,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B119" s="2">
         <v>1.0</v>
@@ -11416,18 +11440,18 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B120" s="2">
         <v>1.0</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B121" s="2">
         <v>1.0</v>
@@ -11435,7 +11459,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B122" s="2">
         <v>1.0</v>
@@ -11443,7 +11467,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B123" s="2">
         <v>1.0</v>
@@ -11451,18 +11475,18 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B124" s="2">
         <v>1.0</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B125" s="2">
         <v>1.0</v>
@@ -11470,7 +11494,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B126" s="2">
         <v>1.0</v>
@@ -11478,7 +11502,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B127" s="2">
         <v>1.0</v>
@@ -11486,7 +11510,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B128" s="2">
         <v>1.0</v>
@@ -11494,7 +11518,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B129" s="2">
         <v>1.0</v>
@@ -11502,18 +11526,18 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B130" s="2">
         <v>1.0</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B131" s="2">
         <v>1.0</v>
@@ -11521,29 +11545,29 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B132" s="2">
         <v>1.0</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B133" s="2">
         <v>1.0</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B134" s="2">
         <v>1.0</v>
@@ -11551,29 +11575,29 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B135" s="2">
         <v>1.0</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B136" s="2">
         <v>1.0</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B137" s="2">
         <v>1.0</v>
@@ -11581,7 +11605,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B138" s="2">
         <v>1.0</v>
@@ -11589,7 +11613,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B139" s="2">
         <v>1.0</v>
@@ -11597,7 +11621,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B140" s="2">
         <v>1.0</v>
@@ -11605,7 +11629,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B141" s="2">
         <v>1.0</v>
@@ -11613,7 +11637,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B142" s="2">
         <v>1.0</v>
@@ -11621,7 +11645,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B143" s="2">
         <v>1.0</v>
@@ -11629,18 +11653,18 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B144" s="2">
         <v>1.0</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B145" s="2">
         <v>1.0</v>
@@ -11648,7 +11672,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B146" s="2">
         <v>1.0</v>
@@ -11656,7 +11680,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B147" s="2">
         <v>1.0</v>
@@ -11664,7 +11688,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B148" s="2">
         <v>1.0</v>
@@ -11672,7 +11696,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B149" s="2">
         <v>1.0</v>
@@ -11680,7 +11704,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B150" s="2">
         <v>1.0</v>
@@ -11688,7 +11712,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B151" s="2">
         <v>1.0</v>
@@ -11696,7 +11720,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B152" s="2">
         <v>1.0</v>
@@ -11704,7 +11728,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B153" s="2">
         <v>1.0</v>
@@ -11712,7 +11736,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B154" s="2">
         <v>1.0</v>
@@ -11720,7 +11744,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B155" s="2">
         <v>1.0</v>
@@ -11728,7 +11752,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B156" s="2">
         <v>1.0</v>
@@ -11736,7 +11760,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B157" s="2">
         <v>1.0</v>
@@ -11744,7 +11768,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B158" s="2">
         <v>1.0</v>
@@ -11752,7 +11776,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B159" s="2">
         <v>1.0</v>
@@ -11760,7 +11784,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B160" s="2">
         <v>1.0</v>
@@ -11768,7 +11792,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B161" s="2">
         <v>1.0</v>
@@ -11776,7 +11800,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B162" s="2">
         <v>1.0</v>
@@ -11784,7 +11808,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B163" s="2">
         <v>1.0</v>
@@ -11792,13 +11816,13 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B164" s="2">
         <v>1.0</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="165">
@@ -11809,18 +11833,18 @@
         <v>1.0</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B166" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>1176</v>
-      </c>
-      <c r="B166" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="167">
@@ -11831,18 +11855,18 @@
         <v>1.0</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B168" s="2">
         <v>1.0</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="169">
@@ -11853,7 +11877,7 @@
         <v>1.0</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="170">
@@ -11864,29 +11888,29 @@
         <v>1.0</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B171" s="2">
         <v>1.0</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B172" s="2">
         <v>1.0</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="173">
@@ -11897,23 +11921,23 @@
         <v>1.0</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B174" s="2">
         <v>1.0</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B175" s="2">
         <v>1.0</v>
@@ -11921,13 +11945,13 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B176" s="2">
         <v>1.0</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="177">
@@ -11938,12 +11962,12 @@
         <v>1.0</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B178" s="2">
         <v>1.0</v>
@@ -11951,18 +11975,18 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B179" s="2">
         <v>1.0</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B180" s="2">
         <v>1.0</v>
@@ -11970,7 +11994,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B181" s="2">
         <v>1.0</v>
@@ -11978,7 +12002,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B182" s="2">
         <v>1.0</v>
@@ -11986,18 +12010,18 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B183" s="2">
         <v>1.0</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B184" s="2">
         <v>1.0</v>
@@ -12005,24 +12029,24 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B185" s="2">
         <v>1.0</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B186" s="2">
         <v>1.0</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="187">
@@ -12033,45 +12057,45 @@
         <v>1.0</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B188" s="2">
         <v>1.0</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B189" s="2">
         <v>1.0</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B190" s="2">
         <v>1.0</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B191" s="2">
         <v>1.0</v>
@@ -12079,7 +12103,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B192" s="2">
         <v>1.0</v>
@@ -12087,7 +12111,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B193" s="2">
         <v>1.0</v>
@@ -12095,7 +12119,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B194" s="2">
         <v>1.0</v>
@@ -12103,7 +12127,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B195" s="2">
         <v>1.0</v>
@@ -12111,7 +12135,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B196" s="2">
         <v>1.0</v>
@@ -12119,7 +12143,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B197" s="2">
         <v>1.0</v>
@@ -12127,7 +12151,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B198" s="2">
         <v>1.0</v>
@@ -12135,7 +12159,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B199" s="2">
         <v>1.0</v>
@@ -12143,7 +12167,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B200" s="2">
         <v>1.0</v>
@@ -12151,18 +12175,18 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B201" s="2">
         <v>1.0</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B202" s="2">
         <v>1.0</v>
@@ -12170,7 +12194,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B203" s="2">
         <v>1.0</v>
@@ -12178,7 +12202,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B204" s="2">
         <v>1.0</v>
@@ -12186,7 +12210,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B205" s="2">
         <v>1.0</v>
@@ -12194,18 +12218,18 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B206" s="2">
         <v>1.0</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B207" s="2">
         <v>1.0</v>
@@ -12213,7 +12237,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B208" s="2">
         <v>1.0</v>
@@ -12221,7 +12245,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B209" s="2">
         <v>1.0</v>
@@ -12229,7 +12253,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B210" s="2">
         <v>1.0</v>
@@ -12237,7 +12261,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B211" s="2">
         <v>1.0</v>
@@ -12245,7 +12269,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B212" s="2">
         <v>1.0</v>
@@ -12253,18 +12277,18 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B213" s="2">
         <v>1.0</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B214" s="2">
         <v>1.0</v>
@@ -12272,7 +12296,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B215" s="2">
         <v>1.0</v>
@@ -12280,7 +12304,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B216" s="2">
         <v>1.0</v>
@@ -12288,7 +12312,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B217" s="2">
         <v>1.0</v>
@@ -12296,7 +12320,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B218" s="2">
         <v>1.0</v>
@@ -12304,7 +12328,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B219" s="2">
         <v>1.0</v>
@@ -12312,7 +12336,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B220" s="2">
         <v>1.0</v>
@@ -12320,7 +12344,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B221" s="2">
         <v>1.0</v>
@@ -12328,7 +12352,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B222" s="2">
         <v>1.0</v>
@@ -12336,7 +12360,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B223" s="2">
         <v>1.0</v>
@@ -12344,7 +12368,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B224" s="2">
         <v>1.0</v>
@@ -12352,7 +12376,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B225" s="2">
         <v>1.0</v>
@@ -12360,7 +12384,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B226" s="2">
         <v>1.0</v>
@@ -12368,7 +12392,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B227" s="2">
         <v>1.0</v>
@@ -12376,7 +12400,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B228" s="2">
         <v>1.0</v>
@@ -12384,7 +12408,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B229" s="2">
         <v>1.0</v>
@@ -12392,7 +12416,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B230" s="2">
         <v>1.0</v>
@@ -12400,7 +12424,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B231" s="2">
         <v>1.0</v>
@@ -12408,7 +12432,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B232" s="2">
         <v>1.0</v>
@@ -12416,7 +12440,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B233" s="2">
         <v>1.0</v>
@@ -12424,7 +12448,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B234" s="2">
         <v>1.0</v>
@@ -12432,7 +12456,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B235" s="2">
         <v>1.0</v>
@@ -12440,18 +12464,18 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B236" s="2">
         <v>1.0</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B237" s="2">
         <v>1.0</v>
@@ -12459,7 +12483,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B238" s="2">
         <v>1.0</v>
@@ -12467,7 +12491,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B239" s="2">
         <v>1.0</v>
@@ -12475,7 +12499,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B240" s="2">
         <v>1.0</v>
@@ -12483,7 +12507,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B241" s="2">
         <v>1.0</v>
@@ -12491,7 +12515,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B242" s="2">
         <v>1.0</v>
@@ -12499,7 +12523,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B243" s="2">
         <v>1.0</v>
@@ -12507,7 +12531,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B244" s="2">
         <v>1.0</v>
@@ -12515,7 +12539,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B245" s="2">
         <v>1.0</v>
@@ -12523,7 +12547,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B246" s="2">
         <v>1.0</v>
@@ -12531,7 +12555,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B247" s="2">
         <v>1.0</v>
@@ -12539,7 +12563,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B248" s="2">
         <v>1.0</v>
@@ -12547,7 +12571,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B249" s="2">
         <v>1.0</v>
@@ -12555,7 +12579,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B250" s="2">
         <v>1.0</v>
@@ -12563,7 +12587,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B251" s="2">
         <v>1.0</v>
@@ -12571,18 +12595,18 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B252" s="2">
         <v>1.0</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B253" s="2">
         <v>1.0</v>
@@ -12590,7 +12614,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B254" s="2">
         <v>1.0</v>
@@ -12598,7 +12622,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B255" s="2">
         <v>1.0</v>
@@ -12606,7 +12630,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B256" s="2">
         <v>1.0</v>
@@ -12614,7 +12638,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B257" s="2">
         <v>1.0</v>
@@ -12622,7 +12646,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B258" s="2">
         <v>1.0</v>
@@ -12630,7 +12654,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B259" s="2">
         <v>1.0</v>
@@ -12638,29 +12662,29 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B260" s="2">
         <v>1.0</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B261" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>1270</v>
-      </c>
-      <c r="B261" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B262" s="2">
         <v>1.0</v>
@@ -12668,7 +12692,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B263" s="2">
         <v>1.0</v>
@@ -12676,7 +12700,7 @@
     </row>
     <row r="264">
       <c r="A264" s="6" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B264" s="2">
         <v>1.0</v>
@@ -12684,7 +12708,7 @@
     </row>
     <row r="265">
       <c r="A265" s="6" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B265" s="2">
         <v>1.0</v>
@@ -12692,7 +12716,7 @@
     </row>
     <row r="266">
       <c r="A266" s="6" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B266" s="2">
         <v>1.0</v>
@@ -12700,7 +12724,7 @@
     </row>
     <row r="267">
       <c r="A267" s="6" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B267" s="2">
         <v>1.0</v>
@@ -12708,7 +12732,7 @@
     </row>
     <row r="268">
       <c r="A268" s="6" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B268" s="2">
         <v>1.0</v>
@@ -12716,7 +12740,7 @@
     </row>
     <row r="269">
       <c r="A269" s="6" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B269" s="2">
         <v>1.0</v>
@@ -12724,7 +12748,7 @@
     </row>
     <row r="270">
       <c r="A270" s="6" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B270" s="2">
         <v>1.0</v>
@@ -12732,7 +12756,7 @@
     </row>
     <row r="271">
       <c r="A271" s="6" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B271" s="2">
         <v>1.0</v>
@@ -12740,7 +12764,7 @@
     </row>
     <row r="272">
       <c r="A272" s="6" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B272" s="2">
         <v>1.0</v>
@@ -12864,177 +12888,177 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="37">
@@ -13049,42 +13073,77 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>1324</v>
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>1332</v>
       </c>
     </row>
   </sheetData>
@@ -13123,7 +13182,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1325</v>
+        <v>1333</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -13136,7 +13195,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1326</v>
+        <v>1334</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -13149,7 +13208,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="B4" s="1">
         <v>1.0</v>
@@ -13162,7 +13221,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1328</v>
+        <v>1336</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -13175,7 +13234,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>1329</v>
+        <v>1337</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
@@ -13188,7 +13247,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1330</v>
+        <v>1338</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
@@ -13201,7 +13260,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1331</v>
+        <v>1339</v>
       </c>
       <c r="B8" s="1">
         <v>1.0</v>
@@ -13214,7 +13273,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1332</v>
+        <v>1340</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -13227,7 +13286,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1333</v>
+        <v>1341</v>
       </c>
       <c r="B10" s="1">
         <v>1.0</v>
@@ -13240,7 +13299,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>1334</v>
+        <v>1342</v>
       </c>
       <c r="B11" s="1">
         <v>1.0</v>
@@ -13253,7 +13312,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1335</v>
+        <v>1343</v>
       </c>
       <c r="B12" s="1">
         <v>1.0</v>
@@ -13266,7 +13325,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>1336</v>
+        <v>1344</v>
       </c>
       <c r="B13" s="1">
         <v>1.0</v>
@@ -13279,7 +13338,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1337</v>
+        <v>1345</v>
       </c>
       <c r="B14" s="1">
         <v>1.0</v>
@@ -13292,7 +13351,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1338</v>
+        <v>1346</v>
       </c>
       <c r="B15" s="1">
         <v>1.0</v>
@@ -13305,7 +13364,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>1339</v>
+        <v>1347</v>
       </c>
       <c r="B16" s="1">
         <v>1.0</v>
@@ -13318,13 +13377,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1340</v>
+        <v>1348</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1341</v>
+        <v>1349</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -13333,7 +13392,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1342</v>
+        <v>1350</v>
       </c>
       <c r="B18" s="1">
         <v>1.0</v>
@@ -13346,13 +13405,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1343</v>
+        <v>1351</v>
       </c>
       <c r="B19" s="1">
         <v>1.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1341</v>
+        <v>1349</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -13361,7 +13420,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>1344</v>
+        <v>1352</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -13374,7 +13433,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="B21" s="1">
         <v>1.0</v>
@@ -13387,7 +13446,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>1346</v>
+        <v>1354</v>
       </c>
       <c r="B22" s="1">
         <v>1.0</v>
@@ -13400,7 +13459,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1347</v>
+        <v>1355</v>
       </c>
       <c r="B23" s="1">
         <v>1.0</v>
@@ -13413,7 +13472,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="B24" s="1">
         <v>1.0</v>
@@ -13426,7 +13485,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>1349</v>
+        <v>1357</v>
       </c>
       <c r="B25" s="1">
         <v>1.0</v>
@@ -13439,7 +13498,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1350</v>
+        <v>1358</v>
       </c>
       <c r="B26" s="1">
         <v>1.0</v>
@@ -13452,7 +13511,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1351</v>
+        <v>1359</v>
       </c>
       <c r="B27" s="1">
         <v>1.0</v>
@@ -13465,7 +13524,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1352</v>
+        <v>1360</v>
       </c>
       <c r="B28" s="1">
         <v>1.0</v>
@@ -13478,7 +13537,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1353</v>
+        <v>1361</v>
       </c>
       <c r="B29" s="1">
         <v>1.0</v>
@@ -13491,7 +13550,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1354</v>
+        <v>1362</v>
       </c>
       <c r="B30" s="1">
         <v>1.0</v>
@@ -13504,7 +13563,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1355</v>
+        <v>1363</v>
       </c>
       <c r="B31" s="1">
         <v>1.0</v>
@@ -13517,7 +13576,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1356</v>
+        <v>1364</v>
       </c>
       <c r="B32" s="1">
         <v>1.0</v>
@@ -13530,7 +13589,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1357</v>
+        <v>1365</v>
       </c>
       <c r="B33" s="1">
         <v>1.0</v>
@@ -13543,7 +13602,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="B34" s="1">
         <v>1.0</v>
@@ -13556,7 +13615,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1359</v>
+        <v>1367</v>
       </c>
       <c r="B35" s="1">
         <v>1.0</v>
@@ -13569,40 +13628,40 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1360</v>
+        <v>1368</v>
       </c>
       <c r="B36" s="1">
         <v>1.0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1361</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>1362</v>
+        <v>1370</v>
       </c>
       <c r="B37" s="1">
         <v>1.0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1361</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>1363</v>
+        <v>1371</v>
       </c>
       <c r="B38" s="1">
         <v>1.0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1361</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1364</v>
+        <v>1372</v>
       </c>
       <c r="B39" s="1">
         <v>1.0</v>
@@ -13610,7 +13669,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1365</v>
+        <v>1373</v>
       </c>
       <c r="B40" s="1">
         <v>1.0</v>
@@ -13618,7 +13677,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="B41" s="1">
         <v>1.0</v>
@@ -13626,7 +13685,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1367</v>
+        <v>1375</v>
       </c>
       <c r="B42" s="1">
         <v>1.0</v>
@@ -13634,7 +13693,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1368</v>
+        <v>1376</v>
       </c>
       <c r="B43" s="1">
         <v>1.0</v>
@@ -13642,7 +13701,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1369</v>
+        <v>1377</v>
       </c>
       <c r="B44" s="1">
         <v>1.0</v>
@@ -13650,7 +13709,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>1370</v>
+        <v>1378</v>
       </c>
       <c r="B45" s="1">
         <v>1.0</v>
@@ -13658,7 +13717,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>1371</v>
+        <v>1379</v>
       </c>
       <c r="B46" s="1">
         <v>1.0</v>
@@ -13666,7 +13725,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>1372</v>
+        <v>1380</v>
       </c>
       <c r="B47" s="1">
         <v>1.0</v>
@@ -13674,7 +13733,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>1373</v>
+        <v>1381</v>
       </c>
       <c r="B48" s="1">
         <v>1.0</v>
@@ -13682,7 +13741,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>1374</v>
+        <v>1382</v>
       </c>
       <c r="B49" s="1">
         <v>1.0</v>
@@ -13690,18 +13749,18 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>1375</v>
+        <v>1383</v>
       </c>
       <c r="B50" s="1">
         <v>1.0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1376</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1377</v>
+        <v>1385</v>
       </c>
       <c r="B51" s="1">
         <v>1.0</v>
@@ -13709,7 +13768,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>1378</v>
+        <v>1386</v>
       </c>
       <c r="B52" s="1">
         <v>1.0</v>
@@ -13717,7 +13776,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>1379</v>
+        <v>1387</v>
       </c>
       <c r="B53" s="1">
         <v>1.0</v>
@@ -13725,7 +13784,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>1380</v>
+        <v>1388</v>
       </c>
       <c r="B54" s="1">
         <v>1.0</v>
@@ -13733,7 +13792,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>1381</v>
+        <v>1389</v>
       </c>
       <c r="B55" s="1">
         <v>1.0</v>
@@ -13741,18 +13800,18 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>1382</v>
+        <v>1390</v>
       </c>
       <c r="B56" s="1">
         <v>1.0</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1383</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>1384</v>
+        <v>1392</v>
       </c>
       <c r="B57" s="1">
         <v>1.0</v>
@@ -13760,7 +13819,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>1385</v>
+        <v>1393</v>
       </c>
       <c r="B58" s="1">
         <v>1.0</v>
@@ -13768,7 +13827,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>1386</v>
+        <v>1394</v>
       </c>
       <c r="B59" s="1">
         <v>1.0</v>
@@ -13776,7 +13835,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>1387</v>
+        <v>1395</v>
       </c>
       <c r="B60" s="1">
         <v>1.0</v>
@@ -13784,7 +13843,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>1388</v>
+        <v>1396</v>
       </c>
       <c r="B61" s="1">
         <v>1.0</v>
@@ -13792,7 +13851,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>1389</v>
+        <v>1397</v>
       </c>
       <c r="B62" s="1">
         <v>1.0</v>
@@ -13800,7 +13859,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>1390</v>
+        <v>1398</v>
       </c>
       <c r="B63" s="1">
         <v>1.0</v>
@@ -13808,7 +13867,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>1391</v>
+        <v>1399</v>
       </c>
       <c r="B64" s="1">
         <v>1.0</v>
@@ -13816,7 +13875,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>1392</v>
+        <v>1400</v>
       </c>
       <c r="B65" s="1">
         <v>1.0</v>
@@ -13824,7 +13883,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>1393</v>
+        <v>1401</v>
       </c>
       <c r="B66" s="1">
         <v>1.0</v>
@@ -13832,7 +13891,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>1394</v>
+        <v>1402</v>
       </c>
       <c r="B67" s="1">
         <v>1.0</v>
@@ -13840,7 +13899,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>1395</v>
+        <v>1403</v>
       </c>
       <c r="B68" s="1">
         <v>1.0</v>
@@ -13848,7 +13907,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>1396</v>
+        <v>1404</v>
       </c>
       <c r="B69" s="1">
         <v>1.0</v>
@@ -13856,7 +13915,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>1397</v>
+        <v>1405</v>
       </c>
       <c r="B70" s="1">
         <v>1.0</v>
@@ -13864,7 +13923,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>1398</v>
+        <v>1406</v>
       </c>
       <c r="B71" s="1">
         <v>1.0</v>
@@ -13872,7 +13931,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>1399</v>
+        <v>1407</v>
       </c>
       <c r="B72" s="1">
         <v>1.0</v>
@@ -13880,7 +13939,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>1400</v>
+        <v>1408</v>
       </c>
       <c r="B73" s="1">
         <v>1.0</v>
@@ -13888,7 +13947,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>1401</v>
+        <v>1409</v>
       </c>
       <c r="B74" s="1">
         <v>1.0</v>
@@ -13896,7 +13955,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>1402</v>
+        <v>1410</v>
       </c>
       <c r="B75" s="1">
         <v>1.0</v>
@@ -13904,7 +13963,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>1403</v>
+        <v>1411</v>
       </c>
       <c r="B76" s="1">
         <v>1.0</v>
@@ -13912,7 +13971,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>1404</v>
+        <v>1412</v>
       </c>
       <c r="B77" s="1">
         <v>1.0</v>
@@ -13920,7 +13979,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>1405</v>
+        <v>1413</v>
       </c>
       <c r="B78" s="1">
         <v>1.0</v>
@@ -13928,7 +13987,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>1406</v>
+        <v>1414</v>
       </c>
       <c r="B79" s="1">
         <v>1.0</v>
@@ -13936,7 +13995,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>1407</v>
+        <v>1415</v>
       </c>
       <c r="B80" s="1">
         <v>1.0</v>
@@ -13944,40 +14003,40 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>1408</v>
+        <v>1416</v>
       </c>
       <c r="B81" s="1">
         <v>1.0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1409</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>1410</v>
+        <v>1418</v>
       </c>
       <c r="B82" s="1">
         <v>1.0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1411</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>1412</v>
+        <v>1420</v>
       </c>
       <c r="B83" s="1">
         <v>1.0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1413</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="12" t="s">
-        <v>1414</v>
+        <v>1422</v>
       </c>
       <c r="B84" s="1">
         <v>1.0</v>
@@ -13985,7 +14044,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>1415</v>
+        <v>1423</v>
       </c>
       <c r="B85" s="1">
         <v>1.0</v>
@@ -13993,18 +14052,18 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>1416</v>
+        <v>1424</v>
       </c>
       <c r="B86" s="1">
         <v>1.0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1411</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>1417</v>
+        <v>1425</v>
       </c>
       <c r="B87" s="1">
         <v>1.0</v>
@@ -14012,7 +14071,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>1418</v>
+        <v>1426</v>
       </c>
       <c r="B88" s="1">
         <v>1.0</v>
@@ -14020,7 +14079,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>1419</v>
+        <v>1427</v>
       </c>
       <c r="B89" s="1">
         <v>1.0</v>
@@ -14028,7 +14087,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>1420</v>
+        <v>1428</v>
       </c>
       <c r="B90" s="1">
         <v>1.0</v>
@@ -14036,40 +14095,40 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>1421</v>
+        <v>1429</v>
       </c>
       <c r="B91" s="1">
         <v>1.0</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1422</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>1423</v>
+        <v>1431</v>
       </c>
       <c r="B92" s="1">
         <v>1.0</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1424</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>1425</v>
+        <v>1433</v>
       </c>
       <c r="B93" s="1">
         <v>1.0</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1424</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>1426</v>
+        <v>1434</v>
       </c>
       <c r="B94" s="1">
         <v>1.0</v>
@@ -14077,7 +14136,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
       <c r="B95" s="1">
         <v>1.0</v>
@@ -14085,7 +14144,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>1428</v>
+        <v>1436</v>
       </c>
       <c r="B96" s="1">
         <v>1.0</v>
@@ -14093,40 +14152,40 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>1429</v>
+        <v>1437</v>
       </c>
       <c r="B97" s="1">
         <v>1.0</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1409</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>1430</v>
+        <v>1438</v>
       </c>
       <c r="B98" s="1">
         <v>1.0</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1431</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>1432</v>
+        <v>1440</v>
       </c>
       <c r="B99" s="1">
         <v>1.0</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1433</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>1434</v>
+        <v>1442</v>
       </c>
       <c r="B100" s="1">
         <v>1.0</v>
@@ -14134,7 +14193,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>1435</v>
+        <v>1443</v>
       </c>
       <c r="B101" s="1">
         <v>1.0</v>
@@ -14142,7 +14201,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>1436</v>
+        <v>1444</v>
       </c>
       <c r="B102" s="1">
         <v>1.0</v>
@@ -14150,7 +14209,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
       <c r="B103" s="1">
         <v>1.0</v>
@@ -14158,7 +14217,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>1438</v>
+        <v>1446</v>
       </c>
       <c r="B104" s="1">
         <v>1.0</v>
@@ -14166,7 +14225,7 @@
     </row>
     <row r="105">
       <c r="A105" s="13" t="s">
-        <v>1439</v>
+        <v>1447</v>
       </c>
       <c r="B105" s="1">
         <v>1.0</v>
@@ -14174,18 +14233,18 @@
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
-        <v>1440</v>
+        <v>1448</v>
       </c>
       <c r="B106" s="1">
         <v>1.0</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1441</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>1442</v>
+        <v>1450</v>
       </c>
       <c r="B107" s="1">
         <v>1.0</v>
@@ -14193,7 +14252,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>1443</v>
+        <v>1451</v>
       </c>
       <c r="B108" s="1">
         <v>1.0</v>
@@ -14201,7 +14260,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>1444</v>
+        <v>1452</v>
       </c>
       <c r="B109" s="1">
         <v>1.0</v>
@@ -14209,7 +14268,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>1445</v>
+        <v>1453</v>
       </c>
       <c r="B110" s="1">
         <v>1.0</v>
@@ -14217,7 +14276,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>1446</v>
+        <v>1454</v>
       </c>
       <c r="B111" s="1">
         <v>1.0</v>
@@ -14225,7 +14284,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>1447</v>
+        <v>1455</v>
       </c>
       <c r="B112" s="1">
         <v>1.0</v>
@@ -14233,7 +14292,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>1448</v>
+        <v>1456</v>
       </c>
       <c r="B113" s="1">
         <v>1.0</v>
@@ -14241,7 +14300,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>1381</v>
+        <v>1389</v>
       </c>
       <c r="B114" s="1">
         <v>1.0</v>
@@ -14249,7 +14308,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>1449</v>
+        <v>1457</v>
       </c>
       <c r="B115" s="1">
         <v>1.0</v>
@@ -14257,7 +14316,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>1450</v>
+        <v>1458</v>
       </c>
       <c r="B116" s="1">
         <v>1.0</v>
@@ -14265,7 +14324,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>1451</v>
+        <v>1459</v>
       </c>
       <c r="B117" s="1">
         <v>1.0</v>
@@ -14273,7 +14332,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>1452</v>
+        <v>1460</v>
       </c>
       <c r="B118" s="1">
         <v>1.0</v>
@@ -14281,7 +14340,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>1453</v>
+        <v>1461</v>
       </c>
       <c r="B119" s="1">
         <v>1.0</v>
@@ -14289,7 +14348,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>1454</v>
+        <v>1462</v>
       </c>
       <c r="B120" s="1">
         <v>1.0</v>
@@ -14297,7 +14356,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>1455</v>
+        <v>1463</v>
       </c>
       <c r="B121" s="1">
         <v>1.0</v>
@@ -14305,7 +14364,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>1456</v>
+        <v>1464</v>
       </c>
       <c r="B122" s="1">
         <v>1.0</v>
@@ -14313,7 +14372,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>1457</v>
+        <v>1465</v>
       </c>
       <c r="B123" s="1">
         <v>1.0</v>
@@ -14321,7 +14380,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>1458</v>
+        <v>1466</v>
       </c>
       <c r="B124" s="1">
         <v>1.0</v>
@@ -14329,7 +14388,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>1459</v>
+        <v>1467</v>
       </c>
       <c r="B125" s="1">
         <v>1.0</v>
@@ -14364,7 +14423,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1460</v>
+        <v>1468</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -14372,7 +14431,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1461</v>
+        <v>1469</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
@@ -14380,7 +14439,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>1462</v>
+        <v>1470</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -14388,7 +14447,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1463</v>
+        <v>1471</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -14396,7 +14455,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>1464</v>
+        <v>1472</v>
       </c>
       <c r="B6" s="2">
         <v>1.0</v>
@@ -14404,7 +14463,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1465</v>
+        <v>1473</v>
       </c>
       <c r="B7" s="2">
         <v>1.0</v>
@@ -14412,7 +14471,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1466</v>
+        <v>1474</v>
       </c>
       <c r="B8" s="2">
         <v>5.0</v>
@@ -14420,7 +14479,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1467</v>
+        <v>1475</v>
       </c>
       <c r="B9" s="2">
         <v>5.0</v>
@@ -14428,7 +14487,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1468</v>
+        <v>1476</v>
       </c>
       <c r="B10" s="2">
         <v>5.0</v>
@@ -14436,7 +14495,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1469</v>
+        <v>1477</v>
       </c>
       <c r="B11" s="2">
         <v>5.0</v>
@@ -14444,7 +14503,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1470</v>
+        <v>1478</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -14452,7 +14511,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1471</v>
+        <v>1479</v>
       </c>
       <c r="B13" s="2">
         <v>1.0</v>
@@ -14460,7 +14519,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1472</v>
+        <v>1480</v>
       </c>
       <c r="B14" s="2">
         <v>10.0</v>
@@ -14468,7 +14527,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1473</v>
+        <v>1481</v>
       </c>
       <c r="B15" s="2">
         <v>10.0</v>
@@ -14476,7 +14535,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>1474</v>
+        <v>1482</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -14484,7 +14543,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1475</v>
+        <v>1483</v>
       </c>
       <c r="B17" s="2">
         <v>1.0</v>
@@ -14492,7 +14551,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>1476</v>
+        <v>1484</v>
       </c>
       <c r="B18" s="2">
         <v>1.0</v>
@@ -14500,7 +14559,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1477</v>
+        <v>1485</v>
       </c>
       <c r="B19" s="2">
         <v>10.0</v>
@@ -14508,7 +14567,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1478</v>
+        <v>1486</v>
       </c>
       <c r="B20" s="2">
         <v>5.0</v>
@@ -14516,7 +14575,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>1479</v>
+        <v>1487</v>
       </c>
       <c r="B21" s="2">
         <v>10.0</v>
@@ -14524,7 +14583,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1480</v>
+        <v>1488</v>
       </c>
       <c r="B22" s="2">
         <v>5.0</v>
@@ -14532,7 +14591,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1481</v>
+        <v>1489</v>
       </c>
       <c r="B23" s="2">
         <v>5.0</v>
@@ -14540,7 +14599,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>1482</v>
+        <v>1490</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -14548,7 +14607,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1483</v>
+        <v>1491</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -14556,7 +14615,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1484</v>
+        <v>1492</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -14564,7 +14623,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1485</v>
+        <v>1493</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
@@ -14572,7 +14631,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1486</v>
+        <v>1494</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -14580,7 +14639,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1487</v>
+        <v>1495</v>
       </c>
       <c r="B29" s="2">
         <v>10.0</v>
@@ -14588,7 +14647,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1488</v>
+        <v>1496</v>
       </c>
       <c r="B30" s="2">
         <v>10.0</v>
@@ -14596,7 +14655,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1489</v>
+        <v>1497</v>
       </c>
       <c r="B31" s="2">
         <v>5.0</v>
@@ -14604,7 +14663,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1490</v>
+        <v>1498</v>
       </c>
       <c r="B32" s="2">
         <v>5.0</v>
@@ -14612,7 +14671,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1491</v>
+        <v>1499</v>
       </c>
       <c r="B33" s="2">
         <v>5.0</v>
@@ -14620,7 +14679,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1492</v>
+        <v>1500</v>
       </c>
       <c r="B34" s="2">
         <v>5.0</v>
@@ -14628,7 +14687,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1493</v>
+        <v>1501</v>
       </c>
       <c r="B35" s="2">
         <v>5.0</v>
@@ -14636,7 +14695,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1494</v>
+        <v>1502</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -14644,7 +14703,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B37" s="2">
         <v>1.0</v>
@@ -14652,7 +14711,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>1495</v>
+        <v>1503</v>
       </c>
       <c r="B38" s="2">
         <v>5.0</v>
@@ -14660,7 +14719,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1496</v>
+        <v>1504</v>
       </c>
       <c r="B39" s="2">
         <v>10.0</v>
@@ -14668,7 +14727,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1497</v>
+        <v>1505</v>
       </c>
       <c r="B40" s="2">
         <v>1.0</v>
@@ -14676,7 +14735,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1498</v>
+        <v>1506</v>
       </c>
       <c r="B41" s="2">
         <v>10.0</v>
@@ -14684,7 +14743,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1499</v>
+        <v>1507</v>
       </c>
       <c r="B42" s="2">
         <v>5.0</v>
@@ -14692,7 +14751,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
       <c r="B43" s="2">
         <v>3.0</v>
@@ -14700,7 +14759,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1501</v>
+        <v>1509</v>
       </c>
       <c r="B44" s="2">
         <v>3.0</v>
@@ -14708,7 +14767,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>1502</v>
+        <v>1510</v>
       </c>
       <c r="B45" s="2">
         <v>1.0</v>
@@ -14716,7 +14775,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>1503</v>
+        <v>1511</v>
       </c>
       <c r="B46" s="2">
         <v>1.0</v>
@@ -14724,7 +14783,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>1504</v>
+        <v>1512</v>
       </c>
       <c r="B47" s="2">
         <v>1.0</v>
@@ -14732,7 +14791,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>1505</v>
+        <v>1513</v>
       </c>
       <c r="B48" s="2">
         <v>1.0</v>
@@ -14740,7 +14799,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>1506</v>
+        <v>1514</v>
       </c>
       <c r="B49" s="2">
         <v>1.0</v>
@@ -14748,7 +14807,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>1507</v>
+        <v>1515</v>
       </c>
       <c r="B50" s="2">
         <v>1.0</v>
@@ -14756,7 +14815,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1508</v>
+        <v>1516</v>
       </c>
       <c r="B51" s="2">
         <v>1.0</v>
@@ -14764,7 +14823,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>1509</v>
+        <v>1517</v>
       </c>
       <c r="B52" s="2">
         <v>1.0</v>
@@ -14772,7 +14831,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>1510</v>
+        <v>1518</v>
       </c>
       <c r="B53" s="2">
         <v>1.0</v>
@@ -14780,7 +14839,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>1511</v>
+        <v>1519</v>
       </c>
       <c r="B54" s="2">
         <v>1.0</v>
@@ -14788,7 +14847,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>1512</v>
+        <v>1520</v>
       </c>
       <c r="B55" s="2">
         <v>1.0</v>
@@ -14796,7 +14855,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>1513</v>
+        <v>1521</v>
       </c>
       <c r="B56" s="2">
         <v>1.0</v>
@@ -14834,7 +14893,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1514</v>
+        <v>1522</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -14842,7 +14901,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1515</v>
+        <v>1523</v>
       </c>
       <c r="B3" s="2">
         <v>5.0</v>
@@ -14850,7 +14909,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="B4" s="2">
         <v>5.0</v>
@@ -14858,7 +14917,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1517</v>
+        <v>1525</v>
       </c>
       <c r="B5" s="2">
         <v>5.0</v>
@@ -14866,7 +14925,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
       <c r="B6" s="2">
         <v>5.0</v>
@@ -14874,7 +14933,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="B7" s="2">
         <v>5.0</v>
@@ -14882,7 +14941,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1520</v>
+        <v>1528</v>
       </c>
       <c r="B8" s="2">
         <v>5.0</v>
@@ -14890,7 +14949,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1521</v>
+        <v>1529</v>
       </c>
       <c r="B9" s="2">
         <v>5.0</v>
@@ -14898,7 +14957,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="B10" s="2">
         <v>5.0</v>
@@ -14906,7 +14965,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1523</v>
+        <v>1531</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -14914,7 +14973,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1524</v>
+        <v>1532</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -14922,7 +14981,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1525</v>
+        <v>1533</v>
       </c>
       <c r="B13" s="2">
         <v>1.0</v>
@@ -14930,7 +14989,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1523</v>
+        <v>1531</v>
       </c>
       <c r="B14" s="2">
         <v>1.0</v>
@@ -14938,7 +14997,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1526</v>
+        <v>1534</v>
       </c>
       <c r="B15" s="2">
         <v>1.0</v>
@@ -14946,7 +15005,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>1527</v>
+        <v>1535</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -14954,7 +15013,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1528</v>
+        <v>1536</v>
       </c>
       <c r="B17" s="2">
         <v>1.0</v>
@@ -14962,7 +15021,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>1529</v>
+        <v>1537</v>
       </c>
       <c r="B18" s="2">
         <v>1.0</v>
@@ -14970,7 +15029,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1530</v>
+        <v>1538</v>
       </c>
       <c r="B19" s="2">
         <v>1.0</v>
@@ -14978,7 +15037,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1531</v>
+        <v>1539</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -14986,7 +15045,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>1532</v>
+        <v>1540</v>
       </c>
       <c r="B21" s="2">
         <v>1.0</v>
@@ -14994,7 +15053,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1533</v>
+        <v>1541</v>
       </c>
       <c r="B22" s="2">
         <v>1.0</v>
@@ -15002,7 +15061,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1534</v>
+        <v>1542</v>
       </c>
       <c r="B23" s="2">
         <v>1.0</v>
@@ -15010,7 +15069,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>1535</v>
+        <v>1543</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -15018,7 +15077,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1536</v>
+        <v>1544</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -15026,7 +15085,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1537</v>
+        <v>1545</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -15034,7 +15093,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1538</v>
+        <v>1546</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
@@ -15042,7 +15101,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1539</v>
+        <v>1547</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -15050,7 +15109,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1540</v>
+        <v>1548</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
@@ -15058,7 +15117,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1541</v>
+        <v>1549</v>
       </c>
       <c r="B30" s="2">
         <v>1.0</v>
@@ -15066,7 +15125,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1542</v>
+        <v>1550</v>
       </c>
       <c r="B31" s="2">
         <v>1.0</v>
@@ -15074,7 +15133,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1543</v>
+        <v>1551</v>
       </c>
       <c r="B32" s="2">
         <v>1.0</v>
@@ -15082,7 +15141,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1544</v>
+        <v>1552</v>
       </c>
       <c r="B33" s="2">
         <v>1.0</v>
@@ -15090,7 +15149,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1545</v>
+        <v>1553</v>
       </c>
       <c r="B34" s="2">
         <v>1.0</v>
@@ -15098,7 +15157,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1546</v>
+        <v>1554</v>
       </c>
       <c r="B35" s="2">
         <v>1.0</v>
@@ -15106,7 +15165,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1547</v>
+        <v>1555</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -15114,7 +15173,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>1548</v>
+        <v>1556</v>
       </c>
       <c r="B37" s="2">
         <v>1.0</v>
@@ -15122,7 +15181,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>1549</v>
+        <v>1557</v>
       </c>
       <c r="B38" s="2">
         <v>1.0</v>
@@ -15130,7 +15189,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1550</v>
+        <v>1558</v>
       </c>
       <c r="B39" s="2">
         <v>1.0</v>
@@ -15138,7 +15197,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1551</v>
+        <v>1559</v>
       </c>
       <c r="B40" s="2">
         <v>1.0</v>
@@ -15146,7 +15205,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1552</v>
+        <v>1560</v>
       </c>
       <c r="B41" s="2">
         <v>1.0</v>
@@ -15154,7 +15213,7 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>1553</v>
+        <v>1561</v>
       </c>
       <c r="B42" s="2">
         <v>1.0</v>
@@ -15162,7 +15221,7 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>1554</v>
+        <v>1562</v>
       </c>
       <c r="B43" s="2">
         <v>1.0</v>
@@ -15170,7 +15229,7 @@
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>1555</v>
+        <v>1563</v>
       </c>
       <c r="B44" s="2">
         <v>1.0</v>
@@ -15178,7 +15237,7 @@
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>1556</v>
+        <v>1564</v>
       </c>
       <c r="B45" s="2">
         <v>1.0</v>
@@ -15186,7 +15245,7 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>1557</v>
+        <v>1565</v>
       </c>
       <c r="B46" s="2">
         <v>1.0</v>
@@ -15194,7 +15253,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>1558</v>
+        <v>1566</v>
       </c>
       <c r="B47" s="2">
         <v>1.0</v>
@@ -15202,7 +15261,7 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>1559</v>
+        <v>1567</v>
       </c>
       <c r="B48" s="2">
         <v>1.0</v>
@@ -15210,7 +15269,7 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>1560</v>
+        <v>1568</v>
       </c>
       <c r="B49" s="2">
         <v>1.0</v>
@@ -15218,7 +15277,7 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>1561</v>
+        <v>1569</v>
       </c>
       <c r="B50" s="2">
         <v>1.0</v>
@@ -15226,7 +15285,7 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>1562</v>
+        <v>1570</v>
       </c>
       <c r="B51" s="2">
         <v>1.0</v>
@@ -15234,7 +15293,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>1563</v>
+        <v>1571</v>
       </c>
       <c r="B52" s="2">
         <v>1.0</v>
@@ -15242,7 +15301,7 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>1564</v>
+        <v>1572</v>
       </c>
       <c r="B53" s="2">
         <v>1.0</v>
@@ -15250,7 +15309,7 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
-        <v>1565</v>
+        <v>1573</v>
       </c>
       <c r="B54" s="2">
         <v>1.0</v>
@@ -15258,7 +15317,7 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>1566</v>
+        <v>1574</v>
       </c>
       <c r="B55" s="2">
         <v>1.0</v>
@@ -15266,7 +15325,7 @@
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>1567</v>
+        <v>1575</v>
       </c>
       <c r="B56" s="2">
         <v>1.0</v>
@@ -15274,7 +15333,7 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>1568</v>
+        <v>1576</v>
       </c>
       <c r="B57" s="2">
         <v>1.0</v>
@@ -15282,7 +15341,7 @@
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>1569</v>
+        <v>1577</v>
       </c>
       <c r="B58" s="2">
         <v>1.0</v>
@@ -15290,7 +15349,7 @@
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>1570</v>
+        <v>1578</v>
       </c>
       <c r="B59" s="2">
         <v>1.0</v>
@@ -15298,7 +15357,7 @@
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>1571</v>
+        <v>1579</v>
       </c>
       <c r="B60" s="2">
         <v>1.0</v>
@@ -15306,7 +15365,7 @@
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>1572</v>
+        <v>1580</v>
       </c>
       <c r="B61" s="2">
         <v>1.0</v>
@@ -15314,7 +15373,7 @@
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>1573</v>
+        <v>1581</v>
       </c>
       <c r="B62" s="2">
         <v>1.0</v>
@@ -15322,7 +15381,7 @@
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>1574</v>
+        <v>1582</v>
       </c>
       <c r="B63" s="2">
         <v>1.0</v>
@@ -15330,7 +15389,7 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>1575</v>
+        <v>1583</v>
       </c>
       <c r="B64" s="2">
         <v>1.0</v>
@@ -15338,7 +15397,7 @@
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>1576</v>
+        <v>1584</v>
       </c>
       <c r="B65" s="2">
         <v>1.0</v>
@@ -15346,7 +15405,7 @@
     </row>
     <row r="66">
       <c r="A66" s="15" t="s">
-        <v>1577</v>
+        <v>1585</v>
       </c>
       <c r="B66" s="2">
         <v>1.0</v>
@@ -15354,7 +15413,7 @@
     </row>
     <row r="67">
       <c r="A67" s="15" t="s">
-        <v>1578</v>
+        <v>1586</v>
       </c>
       <c r="B67" s="2">
         <v>1.0</v>
@@ -15506,7 +15565,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1579</v>
+        <v>1587</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -15522,7 +15581,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1580</v>
+        <v>1588</v>
       </c>
       <c r="B7" s="2">
         <v>1.0</v>
@@ -15530,7 +15589,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1581</v>
+        <v>1589</v>
       </c>
       <c r="B8" s="2">
         <v>1.0</v>
@@ -15538,7 +15597,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1582</v>
+        <v>1590</v>
       </c>
       <c r="B9" s="2">
         <v>1.0</v>
@@ -15546,7 +15605,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1583</v>
+        <v>1591</v>
       </c>
       <c r="B10" s="2">
         <v>1.0</v>
@@ -15554,7 +15613,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1584</v>
+        <v>1592</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -15562,7 +15621,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1585</v>
+        <v>1593</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -15570,7 +15629,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1586</v>
+        <v>1594</v>
       </c>
       <c r="B13" s="2">
         <v>1.0</v>
@@ -15578,7 +15637,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1587</v>
+        <v>1595</v>
       </c>
       <c r="B14" s="2">
         <v>1.0</v>
@@ -15586,7 +15645,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1588</v>
+        <v>1596</v>
       </c>
       <c r="B15" s="2">
         <v>1.0</v>
@@ -15594,7 +15653,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>1589</v>
+        <v>1597</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -15602,7 +15661,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1590</v>
+        <v>1598</v>
       </c>
       <c r="B17" s="2">
         <v>1.0</v>
@@ -15610,7 +15669,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>1591</v>
+        <v>1599</v>
       </c>
       <c r="B18" s="2">
         <v>1.0</v>
@@ -15618,7 +15677,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1592</v>
+        <v>1600</v>
       </c>
       <c r="B19" s="2">
         <v>1.0</v>
@@ -15626,7 +15685,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1593</v>
+        <v>1601</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -15634,7 +15693,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>1594</v>
+        <v>1602</v>
       </c>
       <c r="B21" s="2">
         <v>1.0</v>
@@ -15642,7 +15701,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1595</v>
+        <v>1603</v>
       </c>
       <c r="B22" s="2">
         <v>1.0</v>
@@ -15650,7 +15709,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1596</v>
+        <v>1604</v>
       </c>
       <c r="B23" s="2">
         <v>1.0</v>
@@ -15658,7 +15717,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>1597</v>
+        <v>1605</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -15666,7 +15725,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1598</v>
+        <v>1606</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -15674,7 +15733,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1599</v>
+        <v>1607</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -15682,7 +15741,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1600</v>
+        <v>1608</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
@@ -15690,7 +15749,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1601</v>
+        <v>1609</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -15698,7 +15757,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1602</v>
+        <v>1610</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
@@ -15706,7 +15765,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1603</v>
+        <v>1611</v>
       </c>
       <c r="B30" s="2">
         <v>1.0</v>
@@ -15714,7 +15773,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1604</v>
+        <v>1612</v>
       </c>
       <c r="B31" s="2">
         <v>1.0</v>
@@ -15722,7 +15781,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1605</v>
+        <v>1613</v>
       </c>
       <c r="B32" s="2">
         <v>1.0</v>
@@ -15730,7 +15789,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1606</v>
+        <v>1614</v>
       </c>
       <c r="B33" s="2">
         <v>1.0</v>
@@ -15738,7 +15797,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1607</v>
+        <v>1615</v>
       </c>
       <c r="B34" s="2">
         <v>1.0</v>
@@ -15746,18 +15805,18 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1608</v>
+        <v>1616</v>
       </c>
       <c r="B35" s="2">
         <v>1.0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1609</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1610</v>
+        <v>1618</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -15765,7 +15824,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>1611</v>
+        <v>1619</v>
       </c>
       <c r="B37" s="2">
         <v>1.0</v>
@@ -15773,7 +15832,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>1612</v>
+        <v>1620</v>
       </c>
       <c r="B38" s="2">
         <v>1.0</v>
@@ -15781,7 +15840,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1613</v>
+        <v>1621</v>
       </c>
       <c r="B39" s="2">
         <v>1.0</v>
@@ -15789,7 +15848,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1614</v>
+        <v>1622</v>
       </c>
       <c r="B40" s="2">
         <v>1.0</v>
@@ -15797,7 +15856,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1615</v>
+        <v>1623</v>
       </c>
       <c r="B41" s="2">
         <v>1.0</v>
@@ -15805,7 +15864,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1616</v>
+        <v>1624</v>
       </c>
       <c r="B42" s="2">
         <v>1.0</v>
@@ -15813,7 +15872,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1617</v>
+        <v>1625</v>
       </c>
       <c r="B43" s="2">
         <v>1.0</v>
@@ -15821,7 +15880,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="B44" s="2">
         <v>1.0</v>
@@ -15829,7 +15888,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>1619</v>
+        <v>1627</v>
       </c>
       <c r="B45" s="2">
         <v>1.0</v>
@@ -15837,7 +15896,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>1620</v>
+        <v>1628</v>
       </c>
       <c r="B46" s="2">
         <v>1.0</v>
@@ -15845,7 +15904,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>1621</v>
+        <v>1629</v>
       </c>
       <c r="B47" s="2">
         <v>1.0</v>
@@ -15853,7 +15912,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>1622</v>
+        <v>1630</v>
       </c>
       <c r="B48" s="2">
         <v>1.0</v>
@@ -15861,7 +15920,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>1623</v>
+        <v>1631</v>
       </c>
       <c r="B49" s="2">
         <v>1.0</v>
@@ -15869,7 +15928,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>1624</v>
+        <v>1632</v>
       </c>
       <c r="B50" s="2">
         <v>1.0</v>
@@ -15877,7 +15936,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1625</v>
+        <v>1633</v>
       </c>
       <c r="B51" s="2">
         <v>1.0</v>
@@ -15885,7 +15944,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>1626</v>
+        <v>1634</v>
       </c>
       <c r="B52" s="2">
         <v>1.0</v>
@@ -15893,7 +15952,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>1627</v>
+        <v>1635</v>
       </c>
       <c r="B53" s="2">
         <v>1.0</v>
@@ -15901,7 +15960,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>1628</v>
+        <v>1636</v>
       </c>
       <c r="B54" s="2">
         <v>1.0</v>
@@ -15909,7 +15968,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>1629</v>
+        <v>1637</v>
       </c>
       <c r="B55" s="2">
         <v>1.0</v>
@@ -15917,7 +15976,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>1630</v>
+        <v>1638</v>
       </c>
       <c r="B56" s="2">
         <v>1.0</v>
@@ -15925,7 +15984,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>1631</v>
+        <v>1639</v>
       </c>
       <c r="B57" s="2">
         <v>1.0</v>
@@ -15941,7 +16000,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
       <c r="B59" s="2">
         <v>1.0</v>
@@ -15949,7 +16008,7 @@
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>1633</v>
+        <v>1641</v>
       </c>
       <c r="B60" s="2">
         <v>1.0</v>
@@ -15957,7 +16016,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>1634</v>
+        <v>1642</v>
       </c>
       <c r="B61" s="2">
         <v>1.0</v>
@@ -15965,7 +16024,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>1635</v>
+        <v>1643</v>
       </c>
       <c r="B62" s="2">
         <v>1.0</v>
@@ -15973,7 +16032,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>1636</v>
+        <v>1644</v>
       </c>
       <c r="B63" s="2">
         <v>1.0</v>
@@ -15984,18 +16043,18 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>1637</v>
+        <v>1645</v>
       </c>
       <c r="B64" s="2">
         <v>1.0</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1638</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
       <c r="B65" s="2">
         <v>1.0</v>
@@ -16006,29 +16065,29 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>1640</v>
+        <v>1648</v>
       </c>
       <c r="B66" s="2">
         <v>1.0</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1609</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
       <c r="B67" s="2">
         <v>1.0</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1609</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>1642</v>
+        <v>1650</v>
       </c>
       <c r="B68" s="2">
         <v>1.0</v>
@@ -16044,7 +16103,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="B70" s="2">
         <v>1.0</v>
@@ -16052,7 +16111,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>1644</v>
+        <v>1652</v>
       </c>
       <c r="B71" s="2">
         <v>1.0</v>
@@ -16060,7 +16119,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>1645</v>
+        <v>1653</v>
       </c>
       <c r="B72" s="2">
         <v>1.0</v>
@@ -16068,7 +16127,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="B73" s="2">
         <v>1.0</v>
@@ -16076,18 +16135,18 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>1647</v>
+        <v>1655</v>
       </c>
       <c r="B74" s="2">
         <v>1.0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1638</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>1648</v>
+        <v>1656</v>
       </c>
       <c r="B75" s="2">
         <v>1.0</v>
@@ -16095,18 +16154,18 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>1649</v>
+        <v>1657</v>
       </c>
       <c r="B76" s="2">
         <v>1.0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1638</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>1650</v>
+        <v>1658</v>
       </c>
       <c r="B77" s="2">
         <v>1.0</v>
@@ -16114,7 +16173,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>1651</v>
+        <v>1659</v>
       </c>
       <c r="B78" s="2">
         <v>1.0</v>
@@ -16122,7 +16181,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>1652</v>
+        <v>1660</v>
       </c>
       <c r="B79" s="2">
         <v>1.0</v>
@@ -16130,7 +16189,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>1653</v>
+        <v>1661</v>
       </c>
       <c r="B80" s="2">
         <v>1.0</v>
@@ -16138,7 +16197,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="B81" s="2">
         <v>1.0</v>
@@ -16146,7 +16205,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="B82" s="2">
         <v>1.0</v>
@@ -16154,18 +16213,18 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>1656</v>
+        <v>1664</v>
       </c>
       <c r="B83" s="2">
         <v>1.0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>1658</v>
+        <v>1666</v>
       </c>
       <c r="B84" s="2">
         <v>1.0</v>
@@ -16173,29 +16232,29 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="B85" s="2">
         <v>1.0</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>1660</v>
+        <v>1668</v>
       </c>
       <c r="B86" s="2">
         <v>1.0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>1661</v>
+        <v>1669</v>
       </c>
       <c r="B87" s="2">
         <v>1.0</v>
@@ -16203,18 +16262,18 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>1662</v>
+        <v>1670</v>
       </c>
       <c r="B88" s="2">
         <v>1.0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>1663</v>
+        <v>1671</v>
       </c>
       <c r="B89" s="2">
         <v>1.0</v>
@@ -16222,7 +16281,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>1664</v>
+        <v>1672</v>
       </c>
       <c r="B90" s="2">
         <v>1.0</v>
@@ -16230,18 +16289,18 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>1665</v>
-      </c>
-      <c r="B91" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="B92" s="2">
         <v>1.0</v>
@@ -16249,7 +16308,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="B93" s="2">
         <v>1.0</v>
@@ -16257,7 +16316,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>1668</v>
+        <v>1676</v>
       </c>
       <c r="B94" s="2">
         <v>1.0</v>
@@ -16265,7 +16324,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="B95" s="2">
         <v>1.0</v>
@@ -16273,7 +16332,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>1670</v>
+        <v>1678</v>
       </c>
       <c r="B96" s="2">
         <v>1.0</v>
@@ -16281,18 +16340,18 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>1671</v>
+        <v>1679</v>
       </c>
       <c r="B97" s="2">
         <v>1.0</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>1672</v>
+        <v>1680</v>
       </c>
       <c r="B98" s="2">
         <v>1.0</v>
@@ -16300,18 +16359,18 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>1673</v>
+        <v>1681</v>
       </c>
       <c r="B99" s="2">
         <v>1.0</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>1674</v>
+        <v>1682</v>
       </c>
       <c r="B100" s="2">
         <v>1.0</v>
@@ -16319,7 +16378,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>1675</v>
+        <v>1683</v>
       </c>
       <c r="B101" s="2">
         <v>1.0</v>
@@ -16327,7 +16386,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="B102" s="2">
         <v>1.0</v>
@@ -16335,7 +16394,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>1677</v>
+        <v>1685</v>
       </c>
       <c r="B103" s="2">
         <v>1.0</v>
@@ -16343,7 +16402,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="B104" s="2">
         <v>1.0</v>
@@ -16351,7 +16410,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="B105" s="2">
         <v>1.0</v>
@@ -16359,7 +16418,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="B106" s="2">
         <v>1.0</v>
@@ -16367,7 +16426,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="B107" s="2">
         <v>1.0</v>
@@ -16375,7 +16434,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="B108" s="2">
         <v>1.0</v>
@@ -16383,18 +16442,18 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="B109" s="2">
         <v>1.0</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
       <c r="B110" s="2">
         <v>1.0</v>
@@ -16402,7 +16461,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
       <c r="B111" s="2">
         <v>1.0</v>
@@ -16410,18 +16469,18 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
       <c r="B112" s="2">
         <v>1.0</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="B113" s="2">
         <v>1.0</v>
@@ -16429,7 +16488,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="B114" s="2">
         <v>1.0</v>
@@ -16437,7 +16496,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="B115" s="2">
         <v>1.0</v>
@@ -16445,7 +16504,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
       <c r="B116" s="2">
         <v>1.0</v>
@@ -16453,7 +16512,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
       <c r="B117" s="2">
         <v>1.0</v>
@@ -16461,7 +16520,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="B118" s="2">
         <v>1.0</v>
@@ -16469,7 +16528,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
       <c r="B119" s="2">
         <v>1.0</v>
@@ -16477,7 +16536,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
       <c r="B120" s="2">
         <v>1.0</v>
@@ -16485,7 +16544,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
       <c r="B121" s="2">
         <v>1.0</v>
@@ -16493,7 +16552,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="B122" s="2">
         <v>1.0</v>
@@ -16501,7 +16560,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="B123" s="2">
         <v>1.0</v>
@@ -16509,7 +16568,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="B124" s="2">
         <v>1.0</v>
@@ -16517,7 +16576,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="B125" s="2">
         <v>1.0</v>
@@ -16525,7 +16584,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="B126" s="2">
         <v>1.0</v>
@@ -16533,7 +16592,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="B127" s="2">
         <v>1.0</v>
@@ -16541,7 +16600,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="B128" s="2">
         <v>1.0</v>
@@ -16549,7 +16608,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="B129" s="2">
         <v>1.0</v>
@@ -16557,7 +16616,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="B130" s="2">
         <v>1.0</v>
@@ -16565,7 +16624,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="B131" s="2">
         <v>1.0</v>
@@ -16573,7 +16632,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="B132" s="2">
         <v>1.0</v>
@@ -16581,7 +16640,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="B133" s="2">
         <v>1.0</v>
@@ -16589,7 +16648,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="B134" s="2">
         <v>1.0</v>
@@ -16597,7 +16656,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="B135" s="2">
         <v>1.0</v>
@@ -16605,7 +16664,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
       <c r="B136" s="2">
         <v>1.0</v>
@@ -16613,7 +16672,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>1711</v>
+        <v>1719</v>
       </c>
       <c r="B137" s="2">
         <v>1.0</v>
@@ -16621,7 +16680,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="B138" s="2">
         <v>1.0</v>
@@ -16629,7 +16688,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
       <c r="B139" s="2">
         <v>1.0</v>
@@ -16637,7 +16696,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
       <c r="B140" s="2">
         <v>1.0</v>
@@ -16645,7 +16704,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>1715</v>
+        <v>1723</v>
       </c>
       <c r="B141" s="2">
         <v>1.0</v>
@@ -16653,7 +16712,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="B142" s="2">
         <v>1.0</v>
@@ -16661,7 +16720,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="B143" s="2">
         <v>1.0</v>
@@ -16669,7 +16728,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>1718</v>
+        <v>1726</v>
       </c>
       <c r="B144" s="2">
         <v>1.0</v>
@@ -16677,7 +16736,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>1719</v>
+        <v>1727</v>
       </c>
       <c r="B145" s="2">
         <v>1.0</v>
@@ -16685,7 +16744,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>1720</v>
+        <v>1728</v>
       </c>
       <c r="B146" s="2">
         <v>1.0</v>
@@ -16693,7 +16752,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>1721</v>
+        <v>1729</v>
       </c>
       <c r="B147" s="2">
         <v>1.0</v>
@@ -16701,7 +16760,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>1722</v>
+        <v>1730</v>
       </c>
       <c r="B148" s="2">
         <v>1.0</v>
@@ -16709,7 +16768,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>1723</v>
+        <v>1731</v>
       </c>
       <c r="B149" s="2">
         <v>1.0</v>
@@ -16717,7 +16776,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="B150" s="2">
         <v>1.0</v>
@@ -16725,7 +16784,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="B151" s="2">
         <v>1.0</v>
@@ -16733,7 +16792,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="B152" s="2">
         <v>1.0</v>
@@ -16741,7 +16800,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="B153" s="2">
         <v>1.0</v>
@@ -16749,7 +16808,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>1728</v>
+        <v>1736</v>
       </c>
       <c r="B154" s="2">
         <v>1.0</v>
@@ -16757,7 +16816,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>1729</v>
+        <v>1737</v>
       </c>
       <c r="B155" s="2">
         <v>1.0</v>
@@ -16765,7 +16824,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>1730</v>
+        <v>1738</v>
       </c>
       <c r="B156" s="2">
         <v>1.0</v>
@@ -16773,7 +16832,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>1731</v>
+        <v>1739</v>
       </c>
       <c r="B157" s="2">
         <v>1.0</v>
@@ -16781,7 +16840,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="B158" s="2">
         <v>1.0</v>
@@ -16789,7 +16848,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>1733</v>
+        <v>1741</v>
       </c>
       <c r="B159" s="2">
         <v>1.0</v>
@@ -16797,7 +16856,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="B160" s="2">
         <v>1.0</v>
@@ -16813,7 +16872,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="B162" s="2">
         <v>1.0</v>
@@ -16821,7 +16880,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="B163" s="2">
         <v>1.0</v>
@@ -16829,7 +16888,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="B164" s="2">
         <v>1.0</v>
@@ -16837,7 +16896,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="B165" s="2">
         <v>1.0</v>
@@ -16845,7 +16904,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="B166" s="2">
         <v>1.0</v>
@@ -16856,7 +16915,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="B167" s="2">
         <v>1.0</v>
@@ -16867,7 +16926,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>1741</v>
+        <v>1749</v>
       </c>
       <c r="B168" s="2">
         <v>1.0</v>
@@ -16878,7 +16937,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="B169" s="2">
         <v>1.0</v>
@@ -16886,7 +16945,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="B170" s="2">
         <v>1.0</v>
@@ -16894,7 +16953,7 @@
     </row>
     <row r="171">
       <c r="A171" s="3" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="B171" s="2">
         <v>1.0</v>
@@ -16903,7 +16962,7 @@
     </row>
     <row r="172">
       <c r="A172" s="3" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="B172" s="2">
         <v>1.0</v>
@@ -16912,7 +16971,7 @@
     </row>
     <row r="173">
       <c r="A173" s="3" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="B173" s="2">
         <v>1.0</v>
@@ -16921,18 +16980,18 @@
     </row>
     <row r="174">
       <c r="A174" s="3" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="B174" s="2">
         <v>1.0</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
       <c r="B175" s="2">
         <v>1.0</v>
@@ -16941,7 +17000,7 @@
     </row>
     <row r="176">
       <c r="A176" s="3" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="B176" s="2">
         <v>1.0</v>
@@ -16950,7 +17009,7 @@
     </row>
     <row r="177">
       <c r="A177" s="3" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="B177" s="2">
         <v>1.0</v>
@@ -16959,7 +17018,7 @@
     </row>
     <row r="178">
       <c r="A178" s="3" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="B178" s="2">
         <v>1.0</v>
@@ -16968,7 +17027,7 @@
     </row>
     <row r="179">
       <c r="A179" s="3" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="B179" s="2">
         <v>1.0</v>
@@ -22662,369 +22721,450 @@
       <c r="D1" s="2" t="s">
         <v>828</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>832</v>
+      <c r="E3" s="2">
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>835</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>844</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -23059,7 +23199,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B2" s="2">
         <v>3.0</v>
@@ -23067,7 +23207,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B3" s="2">
         <v>3.0</v>
@@ -23075,7 +23215,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B4" s="2">
         <v>3.0</v>
@@ -23083,7 +23223,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B5" s="2">
         <v>3.0</v>
@@ -23091,7 +23231,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B6" s="2">
         <v>3.0</v>
@@ -23099,7 +23239,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B7" s="2">
         <v>3.0</v>
@@ -23107,7 +23247,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B8" s="2">
         <v>3.0</v>
@@ -23115,7 +23255,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B9" s="2">
         <v>3.0</v>
@@ -23123,7 +23263,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B10" s="2">
         <v>3.0</v>
@@ -23131,7 +23271,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B11" s="2">
         <v>3.0</v>
@@ -23139,7 +23279,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B12" s="2">
         <v>3.0</v>
@@ -23147,7 +23287,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B13" s="2">
         <v>3.0</v>
@@ -23155,7 +23295,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B14" s="2">
         <v>1.0</v>
@@ -23163,7 +23303,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B15" s="2">
         <v>1.0</v>
@@ -23171,7 +23311,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -23179,7 +23319,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B17" s="2">
         <v>1.0</v>
@@ -23187,7 +23327,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B18" s="2">
         <v>1.0</v>
@@ -23195,7 +23335,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B19" s="2">
         <v>1.0</v>
@@ -23203,7 +23343,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -23211,7 +23351,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B21" s="2">
         <v>1.0</v>
@@ -23219,18 +23359,18 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B22" s="2">
         <v>1.0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B23" s="2">
         <v>1.0</v>
@@ -23238,7 +23378,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -23246,7 +23386,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -23254,7 +23394,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -23262,18 +23402,18 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -23281,7 +23421,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
@@ -23289,7 +23429,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B30" s="2">
         <v>1.0</v>
@@ -23297,7 +23437,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B31" s="2">
         <v>1.0</v>
@@ -23305,7 +23445,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B32" s="2">
         <v>1.0</v>
@@ -23313,7 +23453,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B33" s="2">
         <v>1.0</v>
@@ -23321,29 +23461,29 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B34" s="2">
         <v>1.0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B35" s="2">
         <v>1.0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -23351,7 +23491,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B37" s="2">
         <v>1.0</v>
@@ -23359,7 +23499,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B38" s="2">
         <v>1.0</v>
@@ -23367,7 +23507,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B39" s="2">
         <v>1.0</v>
@@ -23375,7 +23515,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B40" s="2">
         <v>1.0</v>
@@ -23383,7 +23523,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B41" s="2">
         <v>1.0</v>
@@ -23391,7 +23531,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B42" s="2">
         <v>1.0</v>
@@ -23399,7 +23539,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B43" s="2">
         <v>1.0</v>
@@ -23407,7 +23547,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B44" s="2">
         <v>3.0</v>
@@ -23415,7 +23555,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B45" s="2">
         <v>3.0</v>
@@ -23423,7 +23563,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B46" s="2">
         <v>3.0</v>
@@ -23431,7 +23571,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B47" s="2">
         <v>3.0</v>
@@ -23439,7 +23579,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B48" s="2">
         <v>3.0</v>
@@ -23447,7 +23587,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B49" s="2">
         <v>1.0</v>
@@ -23455,7 +23595,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B50" s="2">
         <v>1.0</v>
@@ -23463,7 +23603,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B51" s="2">
         <v>1.0</v>
@@ -23471,7 +23611,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B52" s="2">
         <v>1.0</v>
@@ -23479,7 +23619,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B53" s="2">
         <v>1.0</v>
@@ -23487,7 +23627,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B54" s="2">
         <v>1.0</v>
@@ -23495,7 +23635,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B55" s="2">
         <v>1.0</v>
@@ -23503,7 +23643,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B56" s="2">
         <v>1.0</v>
@@ -23511,7 +23651,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B57" s="2">
         <v>1.0</v>
@@ -23519,7 +23659,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B58" s="2">
         <v>1.0</v>
@@ -23527,7 +23667,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B59" s="2">
         <v>1.0</v>
@@ -23535,7 +23675,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B60" s="2">
         <v>1.0</v>
@@ -23543,7 +23683,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B61" s="2">
         <v>1.0</v>
@@ -23551,7 +23691,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B62" s="2">
         <v>1.0</v>
@@ -23559,7 +23699,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B63" s="2">
         <v>1.0</v>
@@ -23567,7 +23707,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B64" s="2">
         <v>1.0</v>
@@ -23575,7 +23715,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B65" s="2">
         <v>1.0</v>
@@ -23583,7 +23723,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B66" s="2">
         <v>1.0</v>
@@ -23591,7 +23731,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B67" s="2">
         <v>10.0</v>
@@ -23599,7 +23739,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B68" s="2">
         <v>10.0</v>
@@ -23615,7 +23755,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B70" s="2">
         <v>10.0</v>
@@ -23623,7 +23763,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B71" s="2">
         <v>3.0</v>
@@ -23631,7 +23771,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B72" s="2">
         <v>3.0</v>
@@ -23647,7 +23787,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B74" s="2">
         <v>3.0</v>
@@ -23655,7 +23795,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B75" s="2">
         <v>3.0</v>
@@ -23663,7 +23803,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B76" s="2">
         <v>3.0</v>
@@ -23679,7 +23819,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B78" s="2">
         <v>3.0</v>
@@ -23695,7 +23835,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B80" s="2">
         <v>3.0</v>
@@ -23703,7 +23843,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B81" s="2">
         <v>1.0</v>
@@ -23711,7 +23851,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B82" s="2">
         <v>1.0</v>
@@ -23719,7 +23859,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B83" s="2">
         <v>1.0</v>
@@ -23727,7 +23867,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B84" s="2">
         <v>1.0</v>
@@ -23735,7 +23875,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B85" s="2">
         <v>3.0</v>
@@ -23751,7 +23891,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B87" s="2">
         <v>3.0</v>
@@ -23759,7 +23899,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B88" s="2">
         <v>1.0</v>
@@ -23767,7 +23907,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B89" s="2">
         <v>1.0</v>
@@ -23775,7 +23915,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B90" s="2">
         <v>1.0</v>
@@ -23783,7 +23923,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B91" s="2">
         <v>1.0</v>
@@ -23791,7 +23931,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B92" s="2">
         <v>1.0</v>
@@ -23799,7 +23939,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B93" s="2">
         <v>1.0</v>
@@ -23807,7 +23947,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B94" s="2">
         <v>1.0</v>
@@ -23815,7 +23955,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B95" s="2">
         <v>1.0</v>
@@ -23823,7 +23963,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B96" s="2">
         <v>1.0</v>
@@ -23831,7 +23971,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B97" s="2">
         <v>1.0</v>
@@ -23839,7 +23979,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B98" s="2">
         <v>1.0</v>
@@ -23847,7 +23987,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B99" s="2">
         <v>1.0</v>
@@ -23855,7 +23995,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B100" s="2">
         <v>1.0</v>
@@ -23863,7 +24003,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B101" s="2">
         <v>1.0</v>
@@ -23871,7 +24011,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B102" s="2">
         <v>1.0</v>
